--- a/Data/DWA_KB_300622.xlsx
+++ b/Data/DWA_KB_300622.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hiwi FB 09\DWA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F76A5D9-71E1-4F1B-955D-F8E39BFEC0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6458F9E3-8886-48BD-A2BD-F11BEAAA381A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12675" yWindow="315" windowWidth="16125" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -928,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB5"/>
+  <dimension ref="A1:BB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AY4" sqref="AY4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1560,6 +1560,11 @@
       </c>
       <c r="AZ5" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.2">
+      <c r="B6" s="10">
+        <v>999</v>
       </c>
     </row>
   </sheetData>
